--- a/RawData/King.Service.Time.xlsx
+++ b/RawData/King.Service.Time.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\King.Service\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Backoff" sheetId="1" r:id="rId1"/>
@@ -94,37 +94,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -134,9 +103,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Timing</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -163,10 +129,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Backoff!$A$2:$A$69</c:f>
+              <c:f>Backoff!$A$2:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss;@</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>0.1422442939814815</c:v>
                 </c:pt>
@@ -340,46 +306,16 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.16025567129629628</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.16164456018518517</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.16165614583333335</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.16167019675925925</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.16168641203703704</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.16170731481481482</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.16173758101851851</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.16178619212962964</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.16187199074074074</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.16203187499999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.16233979166666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Backoff!$C$2:$C$69</c:f>
+              <c:f>Backoff!$C$2:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -408,7 +344,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -444,7 +380,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -480,7 +416,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -516,7 +452,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -552,37 +488,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>27</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,11 +505,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-871207104"/>
-        <c:axId val="-871202208"/>
+        <c:axId val="-911731136"/>
+        <c:axId val="-911728416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-871207104"/>
+        <c:axId val="-911731136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-871202208"/>
+        <c:crossAx val="-911728416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -621,7 +527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-871202208"/>
+        <c:axId val="-911728416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-871207104"/>
+        <c:crossAx val="-911731136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2530,7 +2436,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2539,11 +2444,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-658513488"/>
-        <c:axId val="-658512400"/>
+        <c:axId val="-911732224"/>
+        <c:axId val="-911731680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-658513488"/>
+        <c:axId val="-911732224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +2458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-658512400"/>
+        <c:crossAx val="-911731680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2561,7 +2466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-658512400"/>
+        <c:axId val="-911731680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2627,7 +2532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-658513488"/>
+        <c:crossAx val="-911732224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4125,8 +4030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C403"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4266,8 +4171,7 @@
         <v>1.1968171296296015E-3</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4422,8 +4326,7 @@
         <v>1.1969212962963105E-3</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4578,8 +4481,7 @@
         <v>1.1968518518518656E-3</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4734,8 +4636,7 @@
         <v>1.1968055555555412E-3</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4890,181 +4791,90 @@
         <v>1.1968865740740742E-3</v>
       </c>
       <c r="C59" s="2">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>0.16164456018518517</v>
-      </c>
-      <c r="B60" s="1">
-        <f t="shared" si="1"/>
-        <v>1.388888888888884E-3</v>
-      </c>
-      <c r="C60" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>0.16165614583333335</v>
-      </c>
-      <c r="B61" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1585648148182415E-5</v>
-      </c>
-      <c r="C61" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>0.16167019675925925</v>
-      </c>
-      <c r="B62" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4050925925906954E-5</v>
-      </c>
-      <c r="C62" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>0.16168641203703704</v>
-      </c>
-      <c r="B63" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6215277777786863E-5</v>
-      </c>
-      <c r="C63" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>0.16170731481481482</v>
-      </c>
-      <c r="B64" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0902777777775938E-5</v>
-      </c>
-      <c r="C64" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>0.16173758101851851</v>
-      </c>
-      <c r="B65" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0266203703693817E-5</v>
-      </c>
-      <c r="C65" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>0.16178619212962964</v>
-      </c>
-      <c r="B66" s="1">
-        <f t="shared" si="1"/>
-        <v>4.8611111111124261E-5</v>
-      </c>
-      <c r="C66" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>0.16187199074074074</v>
-      </c>
-      <c r="B67" s="1">
-        <f t="shared" ref="B67:B130" si="2">A67-A66</f>
-        <v>8.5798611111104206E-5</v>
-      </c>
-      <c r="C67" s="2">
-        <f t="shared" ref="C67:C130" si="3">SECOND(B67)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>0.16203187499999999</v>
-      </c>
-      <c r="B68" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5988425925925198E-4</v>
-      </c>
-      <c r="C68" s="2">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>0.16233979166666668</v>
-      </c>
-      <c r="B69" s="1">
-        <f t="shared" si="2"/>
-        <v>3.0791666666668549E-4</v>
-      </c>
-      <c r="C69" s="2">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
     </row>
@@ -6371,7 +6181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -9736,7 +9546,7 @@
         <v>3.0797453703704236E-4</v>
       </c>
       <c r="C259" s="3">
-        <f t="shared" ref="C259:C322" si="8">SECOND(B259)</f>
+        <f t="shared" ref="C259:C285" si="8">SECOND(B259)</f>
         <v>27</v>
       </c>
     </row>
@@ -9745,7 +9555,7 @@
         <v>0.15843494212962964</v>
       </c>
       <c r="B260" s="1">
-        <f t="shared" ref="B260:B323" si="9">A260-A259</f>
+        <f t="shared" ref="B260:B285" si="9">A260-A259</f>
         <v>1.5987268518519171E-4</v>
       </c>
       <c r="C260" s="3">
